--- a/Results/Pathprint/Pathprint 25.04.16/hyperPathway/AllPathways.xlsx
+++ b/Results/Pathprint/Pathprint 25.04.16/hyperPathway/AllPathways.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-30360" yWindow="-1520" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PathprintPathways" sheetId="1" r:id="rId1"/>
     <sheet name="PP+20" sheetId="4" r:id="rId2"/>
     <sheet name="Enriched Pathways +10" sheetId="2" r:id="rId3"/>
     <sheet name="EP+20" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="COPYPASTE" sheetId="3" r:id="rId5"/>
+    <sheet name="PathwayRole" sheetId="7" r:id="rId6"/>
+    <sheet name="Enrichment" sheetId="9" r:id="rId7"/>
+    <sheet name="RANK" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10949" uniqueCount="3529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11090" uniqueCount="3574">
   <si>
     <t>Pentose and glucuronate interconversions (KEGG)</t>
   </si>
@@ -10647,13 +10650,148 @@
   </si>
   <si>
     <t>PREX1</t>
+  </si>
+  <si>
+    <t>Carbohydrate metabolism</t>
+  </si>
+  <si>
+    <t>Amino acid metabolism</t>
+  </si>
+  <si>
+    <t>Metabolism of cofactors and vitamins</t>
+  </si>
+  <si>
+    <t>Energy metabolism</t>
+  </si>
+  <si>
+    <t>Membrane transport</t>
+  </si>
+  <si>
+    <t>Immune system</t>
+  </si>
+  <si>
+    <t>Signal transduction</t>
+  </si>
+  <si>
+    <t>Sensory system</t>
+  </si>
+  <si>
+    <t>Neurodegenerative diseases</t>
+  </si>
+  <si>
+    <t>Glycan biosynthesis and metabolism</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>Endocrine</t>
+  </si>
+  <si>
+    <t>Nervous system agents</t>
+  </si>
+  <si>
+    <t>Oestrogen receptor 1</t>
+  </si>
+  <si>
+    <t>Coagulation Factor II (Thrombin)</t>
+  </si>
+  <si>
+    <t>Folding, sorting and degredation</t>
+  </si>
+  <si>
+    <t>Heat Shock 70kDa Protein 8</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Neuropilin 1</t>
+  </si>
+  <si>
+    <t>Axon guidance</t>
+  </si>
+  <si>
+    <t>Chaperones and folding catalysts</t>
+  </si>
+  <si>
+    <t>Complement and coagulation cascades</t>
+  </si>
+  <si>
+    <t>Estrogen signalling pathway</t>
+  </si>
+  <si>
+    <t>p450 (Cytochrome) Oxidoreductase</t>
+  </si>
+  <si>
+    <t>Xenobiotics biodegradation and metabolism</t>
+  </si>
+  <si>
+    <t>Metabolism of xenobiotics by cytochrome p450</t>
+  </si>
+  <si>
+    <t>RAN, Member RAS oncogene family</t>
+  </si>
+  <si>
+    <t>Protein import into nucleus</t>
+  </si>
+  <si>
+    <t>Spectrin, Alpha, Non-erythrocytic 1</t>
+  </si>
+  <si>
+    <t>Regulation of actin cytoskeleton</t>
+  </si>
+  <si>
+    <t>Cell motility</t>
+  </si>
+  <si>
+    <t>Sterol regulatory element binding transcription factor 1</t>
+  </si>
+  <si>
+    <t>Sterol biosythesis</t>
+  </si>
+  <si>
+    <t>GWAS ALS</t>
+  </si>
+  <si>
+    <t>NeuroX FDR .05</t>
+  </si>
+  <si>
+    <t>NeuroX GWS</t>
+  </si>
+  <si>
+    <t>GWAS AD</t>
+  </si>
+  <si>
+    <t>Subnetwork 28</t>
+  </si>
+  <si>
+    <t>Exac</t>
+  </si>
+  <si>
+    <t>Carulli</t>
+  </si>
+  <si>
+    <t>GeneCards AD</t>
+  </si>
+  <si>
+    <t>GeneCards ALS</t>
+  </si>
+  <si>
+    <t>Pasterkamp</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>diffPathway Threshold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10708,8 +10846,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10752,6 +10915,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -10762,7 +10967,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10982,8 +11187,140 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11012,8 +11349,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="351">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -11123,6 +11496,72 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -11232,6 +11671,72 @@
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11563,8 +12068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC153"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+    <sheetView showRuler="0" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11677,7 +12182,7 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H2" t="s">
@@ -11900,7 +12405,7 @@
       <c r="U4" t="s">
         <v>99</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="14" t="s">
         <v>100</v>
       </c>
       <c r="W4" t="s">
@@ -11918,7 +12423,7 @@
       <c r="AA4" t="s">
         <v>105</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="14" t="s">
         <v>106</v>
       </c>
       <c r="AC4" t="s">
@@ -12060,7 +12565,7 @@
       <c r="O6" t="s">
         <v>148</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="10" t="s">
         <v>149</v>
       </c>
       <c r="Q6" t="s">
@@ -12140,7 +12645,7 @@
       <c r="L7" t="s">
         <v>170</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="14" t="s">
         <v>171</v>
       </c>
       <c r="N7" t="s">
@@ -12300,7 +12805,7 @@
       <c r="F9" t="s">
         <v>216</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="14" t="s">
         <v>217</v>
       </c>
       <c r="H9" t="s">
@@ -13214,7 +13719,7 @@
       <c r="B22" t="s">
         <v>457</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="14" t="s">
         <v>458</v>
       </c>
       <c r="D22" t="s">
@@ -13344,7 +13849,7 @@
       <c r="J24" t="s">
         <v>491</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="15" t="s">
         <v>492</v>
       </c>
       <c r="Q24" t="s">
@@ -13353,7 +13858,7 @@
       <c r="S24" t="s">
         <v>493</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="14" t="s">
         <v>494</v>
       </c>
       <c r="U24" t="s">
@@ -13617,7 +14122,7 @@
       <c r="S30" t="s">
         <v>435</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30" s="10" t="s">
         <v>559</v>
       </c>
       <c r="U30" t="s">
@@ -13804,7 +14309,7 @@
       <c r="I35" t="s">
         <v>605</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="15" t="s">
         <v>606</v>
       </c>
       <c r="Q35" t="s">
@@ -14025,7 +14530,7 @@
       </c>
     </row>
     <row r="42" spans="2:23">
-      <c r="C42" t="s">
+      <c r="C42" s="14" t="s">
         <v>662</v>
       </c>
       <c r="D42" t="s">
@@ -14549,7 +15054,7 @@
       <c r="I67" t="s">
         <v>777</v>
       </c>
-      <c r="T67" t="s">
+      <c r="T67" s="10" t="s">
         <v>778</v>
       </c>
       <c r="U67" t="s">
@@ -14577,7 +15082,7 @@
       <c r="I69" t="s">
         <v>783</v>
       </c>
-      <c r="T69" t="s">
+      <c r="T69" s="10" t="s">
         <v>784</v>
       </c>
       <c r="U69" t="s">
@@ -14599,7 +15104,7 @@
       <c r="I71" t="s">
         <v>788</v>
       </c>
-      <c r="T71" t="s">
+      <c r="T71" s="14" t="s">
         <v>789</v>
       </c>
       <c r="U71" t="s">
@@ -26896,8 +27401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC736"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J100"/>
+    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -48382,7 +48887,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -48650,6 +49155,1816 @@
     <row r="29" spans="2:3" ht="80">
       <c r="B29" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="45.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3547</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
+      <c r="A13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36">
+      <c r="A17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="31">
+      <c r="A29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:D29">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="61.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="B1" s="7" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3565</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3566</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3567</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>3569</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>3570</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>3571</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.69000531858528802</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.71791339325706405</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.44351870277427102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1.4478632E-2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>4.78540305353479E-3</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1.6934993335040701E-4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.18408316128336899</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8.6933418999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>4.1133462444834901E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.57914848317067202</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.48280311191924202</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>6.1718322814171903E-2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>4.8339665989818502E-2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.69000531858528802</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1.2315316999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.14069509185710799</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.17578657672120901</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.13804181400000001</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.16857409306583901</v>
+      </c>
+      <c r="F9" s="20">
+        <v>8.1695048168817306E-5</v>
+      </c>
+      <c r="G9">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1.5391022923538699E-2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.47311059700000002</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>8.1042420957462506E-3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>6.6662513969360099E-3</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.73723382312198005</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.57914848317067202</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1.1072037999999999E-2</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2.7104461761156E-3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2.20658584787E-3</v>
+      </c>
+      <c r="G12">
+        <v>0.20425728894475001</v>
+      </c>
+      <c r="H12" s="19">
+        <v>4.9722727445509901E-2</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2.6635101649574399E-8</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1.60688085469861E-3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.14271941881429301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="20">
+        <v>2.8037014727981399E-6</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.57914848317067202</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1.1072037999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1.1240502084248601E-2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.68383697133764598</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2.6497418299784102E-4</v>
+      </c>
+      <c r="G16">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.57914848317067202</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1.4478632E-2</v>
+      </c>
+      <c r="D17" s="19">
+        <v>6.7402989112358303E-3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.69284498379318404</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>3.2088495860488901E-3</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1.60688085469861E-3</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
+        <v>9.3941721000000006E-2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.14069509185710799</v>
+      </c>
+      <c r="F18" s="20">
+        <v>3.5002186917695699E-5</v>
+      </c>
+      <c r="G18">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19">
+        <v>8.6709331606662395E-3</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>8.7965141319867497E-3</v>
+      </c>
+      <c r="G19">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.48280311191924202</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.13804181400000001</v>
+      </c>
+      <c r="D20" s="21">
+        <v>9.2079679735772302E-2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19">
+        <v>8.8450479761126299E-4</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4.5457061106893998E-4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>7.7901954244432104E-3</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.36147653405507202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.78786961812226397</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1.316001E-3</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2.7104461761156E-3</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1.2650995504450501E-4</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0.59321721049739395</v>
+      </c>
+      <c r="J21">
+        <v>0.49733411487111601</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.65699653358907195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.48280311191924202</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20">
+        <v>6.1810287856443002E-6</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2.29619877758615E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.333185843069493</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.57914848317067202</v>
+      </c>
+      <c r="C23" s="19">
+        <v>3.2159902999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>8.1042420957462506E-3</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19">
+        <v>4.8339665989818502E-2</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>8.8653177999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>4.1605916586379001E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.92693765332186295</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.179920740946825</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.55995791912535697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2.3368287999827299E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.210523329692443</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1.4346242033713701E-2</v>
+      </c>
+      <c r="J25">
+        <v>6.5807267555382604E-2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="20">
+        <v>5.3072173478551399E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.57914848317067202</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.8184271931923807E-2</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19">
+        <v>1.4346242033713701E-2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.71791339325706405</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20">
+        <v>6.1810287856443002E-6</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.166013640109511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.57914848317067202</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1.1072037999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19">
+        <v>3.1153496253142599E-3</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.48280311191924202</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.12978909861528201</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="21.5" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="G1" s="29" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="24">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="25">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="25">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="25">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="25">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="25">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="25">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="25">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="25">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="25">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="25">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="25">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="26">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="26">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="26">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="26">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="26">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="26">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="29">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
